--- a/biology/Médecine/1545_en_santé_et_médecine/1545_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1545_en_santé_et_médecine/1545_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1545_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1545_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1545 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1545_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1545_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1545-1550 : une épidémie dévastatrice de cocoliztli, probablement due à la bactérie Salmonella enterica Paratyphi C, « touche une grande partie du Mexique et du Guatemala[1],[2] ».
-« L’amiral anglais Walter Raleigh rapport[e] la pomme de terre de l’Amérique septentrionale[3]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1545-1550 : une épidémie dévastatrice de cocoliztli, probablement due à la bactérie Salmonella enterica Paratyphi C, « touche une grande partie du Mexique et du Guatemala, ».
+« L’amiral anglais Walter Raleigh rapport[e] la pomme de terre de l’Amérique septentrionale. »</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1545_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1545_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ambroise Paré (c.1510-1590) publie à Paris, chez Vivant Gaultherot, sa Méthode de traiter les plaies faites par arquebuses[4].
-Walther Hermann Ryff (c.1500-1548) publie son Traité de chirurgie, à Francfort chez Christian Egenolff[5].
-Charles Estienne (c.1504-1564) publie à Paris, chez Simon de Colines, son traité De dissectione partium corporis humani[6], dont il confiera au même imprimeur, dès l'année suivante 1546, la traduction française sous le titre de Dissection des parties du corps humain[7].
-L'imprimeur parisien Jean Longis[8] publie un Petit traité contenant la manière de faire toutes les confitures[9],[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ambroise Paré (c.1510-1590) publie à Paris, chez Vivant Gaultherot, sa Méthode de traiter les plaies faites par arquebuses.
+Walther Hermann Ryff (c.1500-1548) publie son Traité de chirurgie, à Francfort chez Christian Egenolff.
+Charles Estienne (c.1504-1564) publie à Paris, chez Simon de Colines, son traité De dissectione partium corporis humani, dont il confiera au même imprimeur, dès l'année suivante 1546, la traduction française sous le titre de Dissection des parties du corps humain.
+L'imprimeur parisien Jean Longis publie un Petit traité contenant la manière de faire toutes les confitures,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1545_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1545_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>John Gerard (mort en 1611 ou 1612), médecin et botaniste anglais[11].
-Gaspare Tagliacozzi (mort en 1599), médecin italien[12].
-Vers 1545 : Claude Aubery (mort en 1596), médecin et philosophe français[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>John Gerard (mort en 1611 ou 1612), médecin et botaniste anglais.
+Gaspare Tagliacozzi (mort en 1599), médecin italien.
+Vers 1545 : Claude Aubery (mort en 1596), médecin et philosophe français.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1545_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1545_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ludovico Boccadiferro (né vers 1482), professeur italien de philosophie et de médecine[14],[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ludovico Boccadiferro (né vers 1482), professeur italien de philosophie et de médecine,.</t>
         </is>
       </c>
     </row>
